--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,51 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>A PRIMAC ELEVADORES</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>comercial@primac.com.br</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>manutenção de elevadores São Paulo capital</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Fora, 728 - Vila Ema
+03286-000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>FÁBRICA DE ELEVADOR EM SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>comercial@montvilleelvadores.com.br;comercial@montvilleelevadores.com.br</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>instalação de elevadores São Paulo capital</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Vista, 917 - Alphaville, Santana de Parnaíba - SP, 06539-010</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,6 +681,415 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Home
+A Flex
+Serviços
+Clientes
+Contato</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>1136086444</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>vendas@flexelevadores.com.br</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>empresa de elevadores zona central São Paulo</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Rua Francisco Vieira, 77 - Tatuapé - São Paulo
+CEP</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>https://www.flexst.com.br/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>HOME
+EMPRESA
+PRODUTOS
+SERVIÇOS
+CLIENTES
+CONTATO</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>1139344855</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>contato@basselevadores.com.br</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>manutenção de elevadores zona norte São Paulo</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Rua Orlando Lopes de Oliveira, 1000
+CEP</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>http://basselevadores.com.br/manutencao-de-elevadores-em-sao-paulo-sp.php</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>MODERNIZAÇÃO ELEVADORES NA ZONA NORTE DE SP</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>11983291600</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>contato@ripublic.com.br</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>modernização de elevadores zona norte São Paulo</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Barbosa, 481 - Macedo, Guarulhos - SP, 07113-040</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>https://ripublic.com.br/informacoes/modernizacao-elevadores/regiao/zona-norte-de-sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Home
+Sobre Nós
+Manutenção
+Modernização
+Contato</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>1126142631</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>contato@teamelevadores.com.br</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>modernização de elevadores zona leste São Paulo</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rua Dom Vilares, 530, Vila das Mercês
+</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>https://www.teamelevadores.com.br/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AGILIDADE E EFICIÊNCIA
+PARA MELHOR ATENDER VOCÊ</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>1133450000</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>bruno@crel.com.br</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>modernização de elevadores zona oeste São Paulo</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>https://crel.com.br/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Venda seu carro sem burocracia, rápido e com segurança.</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>11940340121</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>contato@compramoscarros.com.br</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>venda seu carro São Paulo</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avenida Brigadeiro Luíz Antonio, 1061 </t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.compramoscarros.com.br/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Venda seu carro no mesmo dia</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>imprensa@kavak.com</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>venda seu carro São Paulo</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>https://www.kavak.com/br/vender-carro</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>VAAPTY!</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>0000017674</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>sac@vaapty.com</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>venda seu carro São Paulo</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>https://www.vaapty.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>MAGNUS CAR
+ESTOQUE VENDA SEU CARRO FINANCIE SOBRE
+(11)99537-5286
+Whatsapp</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>11995375286</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>magnuscarceo@gmail.com</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>venda seu carro São Paulo</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Avenida Cupecê, 3545 - Jardim Itacolomi - - São Paulo</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>https://magnuscar.com.br/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Vender
+Certificar carro
+Comprar
+Como funciona</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>apoio@instacarro.com</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>venda seu carro São Paulo</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>https://www.instacarro.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Carros usados à venda em São Paulo-SP | Mobiauto</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>faleconosco@mobiauto.com.br</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>venda de seminovos São Paulo</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mobiauto.com.br/comprar/carros-usados/sp-sao-paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Dancar Seminovos
+ESTOQUE VENDA SEU CARRO FINANCIE SOBRE
+(11)98053-2029
+Whatsapp</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>11980532029</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>danidancarseminovos@gmail.com</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>venda de seminovos São Paulo</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>https://dancarbrmultimarcas.com.br/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Global Veículos
+ESTOQUE VENDA SEU CARRO FINANCIE SOBRE
+(11)96864-3910
+Whatsapp</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>11968643910</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>global.veiculos@yahoo.com.br</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>venda de seminovos São Paulo</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Avenida Casa Grande, 1370 - Vila Cunha Bueno - São Paulo</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>https://globalveiculosp.com.br/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
